--- a/Pre Requirments and Designs/revised database plan.xlsx
+++ b/Pre Requirments and Designs/revised database plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lntinfotech-my.sharepoint.com/personal/saisindhu_nomula_lntinfotech_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\General-Insurance\Pre Requirments and Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{EE8C7218-6DD1-473F-9020-58CB0C15B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3339C64-C0D9-4F21-B823-214AF4C61121}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC70C1-8A39-4F19-A68D-D81CBD4BDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D5F2D8F3-FD1D-4F6B-909F-22EFFC394D90}"/>
+    <workbookView minimized="1" xWindow="9435" yWindow="120" windowWidth="10605" windowHeight="10350" xr2:uid="{D5F2D8F3-FD1D-4F6B-909F-22EFFC394D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>A-vehicles details</t>
   </si>
@@ -370,13 +370,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A1200F-5872-4286-BA66-2B049F6B4FA2}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,35 +821,35 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -895,11 +895,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -928,37 +928,42 @@
         <v>57</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
@@ -969,11 +974,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
@@ -991,9 +996,9 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="F29" t="s">
         <v>20</v>
       </c>
@@ -1008,43 +1013,43 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="E32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>65</v>
       </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="s">
@@ -1058,11 +1063,11 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
@@ -1076,9 +1081,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="E35" t="s">
         <v>26</v>
       </c>
@@ -1090,27 +1095,27 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="F37" t="s">
         <v>66</v>
       </c>
@@ -1120,13 +1125,13 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
@@ -1143,11 +1148,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
@@ -1164,27 +1169,27 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K42" s="2"/>
@@ -1209,22 +1214,22 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1281,10 +1286,10 @@
       <c r="C52" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1298,22 +1303,22 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1369,22 +1374,22 @@
       <c r="G61" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1437,6 +1442,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100320840752D23B9488A4107F0AA110EE6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a93cbd9f81ed4d91930bf9498cef651e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4f3ff0de-458d-462e-9866-c1ac0c11f0c0" xmlns:ns4="4b3954d8-ed63-4e76-97e5-a038cab6f4ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab172cc3280f3688a5142fe93cbf096" ns3:_="" ns4:_="">
     <xsd:import namespace="4f3ff0de-458d-462e-9866-c1ac0c11f0c0"/>
@@ -1647,22 +1667,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B781FE6-5548-4E3F-A316-FD92A64434FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4b3954d8-ed63-4e76-97e5-a038cab6f4ab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4f3ff0de-458d-462e-9866-c1ac0c11f0c0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C6CFB-3709-4760-A212-6698BBE6CA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F6E47E-4233-4EF1-B53E-DD965FDE4B36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1679,29 +1709,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C6CFB-3709-4760-A212-6698BBE6CA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B781FE6-5548-4E3F-A316-FD92A64434FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4b3954d8-ed63-4e76-97e5-a038cab6f4ab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4f3ff0de-458d-462e-9866-c1ac0c11f0c0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>